--- a/mts.xlsx
+++ b/mts.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Pentru_Facultate\Master\Anul_2\Semestrul_2\Integrare_Informationala\Laborator\Project\Project_Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF9BC046-4975-4C1E-B281-22F0134BD1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CAB332-D61D-4455-815B-6E6A013C0DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="1320" windowWidth="17280" windowHeight="8964"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mts" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -596,8 +596,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -952,7 +953,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I388"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -960,7 +961,7 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -11052,5 +11053,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>